--- a/PDRMYE/PRUEBAS/Matriz de Prueba CPH/matiz de pruebas PDRMYE (Autoguardado).xlsx
+++ b/PDRMYE/PRUEBAS/Matriz de Prueba CPH/matiz de pruebas PDRMYE (Autoguardado).xlsx
@@ -731,17 +731,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -752,29 +746,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,6 +759,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,6 +775,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -917,6 +917,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-06CB-4DCB-BD9E-B303FF6C68F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -932,6 +937,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-06CB-4DCB-BD9E-B303FF6C68F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -947,6 +957,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-06CB-4DCB-BD9E-B303FF6C68F5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1112,7 +1127,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1242,9 +1256,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1334,7 +1346,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2844,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EW225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222:D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2868,23 +2879,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
@@ -3025,21 +3036,21 @@
       <c r="EW1" s="17"/>
     </row>
     <row r="2" spans="1:153" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="28" t="s">
         <v>88</v>
       </c>
@@ -3184,27 +3195,27 @@
       <c r="EW2" s="17"/>
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="28" t="s">
         <v>82</v>
       </c>
@@ -3349,21 +3360,21 @@
       <c r="EW3" s="17"/>
     </row>
     <row r="4" spans="1:153" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="28" t="s">
         <v>117</v>
       </c>
@@ -4165,7 +4176,7 @@
       <c r="C9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="54" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -4336,7 +4347,7 @@
       <c r="C10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
@@ -4505,7 +4516,7 @@
       <c r="C11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
@@ -4674,7 +4685,7 @@
       <c r="C12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
@@ -4837,7 +4848,7 @@
       <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
@@ -5006,7 +5017,7 @@
       <c r="C14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="11" t="s">
         <v>12</v>
       </c>
@@ -5184,7 +5195,7 @@
       <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
@@ -5362,7 +5373,7 @@
       <c r="C16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
@@ -5537,7 +5548,7 @@
       <c r="C17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="11" t="s">
         <v>12</v>
       </c>
@@ -5715,7 +5726,7 @@
       <c r="C18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="48" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -5887,7 +5898,7 @@
       <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="52"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="11" t="s">
         <v>12</v>
       </c>
@@ -6057,7 +6068,7 @@
       <c r="C20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="11" t="s">
         <v>12</v>
       </c>
@@ -6227,7 +6238,7 @@
       <c r="C21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
@@ -6391,7 +6402,7 @@
       <c r="C22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="11" t="s">
         <v>12</v>
       </c>
@@ -6561,7 +6572,7 @@
       <c r="C23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="11" t="s">
         <v>12</v>
       </c>
@@ -6739,7 +6750,7 @@
       <c r="C24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="11" t="s">
         <v>12</v>
       </c>
@@ -6917,7 +6928,7 @@
       <c r="C25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="11" t="s">
         <v>12</v>
       </c>
@@ -7083,7 +7094,7 @@
       <c r="C26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="53"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="11" t="s">
         <v>12</v>
       </c>
@@ -7255,7 +7266,7 @@
       <c r="C27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="48" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="15" t="s">
@@ -7426,7 +7437,7 @@
       <c r="C28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="52"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="11" t="s">
         <v>12</v>
       </c>
@@ -7595,7 +7606,7 @@
       <c r="C29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="11" t="s">
         <v>12</v>
       </c>
@@ -7764,7 +7775,7 @@
       <c r="C30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
@@ -7930,7 +7941,7 @@
       <c r="C31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
@@ -8099,7 +8110,7 @@
       <c r="C32" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="52"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="11" t="s">
         <v>12</v>
       </c>
@@ -8274,7 +8285,7 @@
       <c r="C33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="52"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="11" t="s">
         <v>12</v>
       </c>
@@ -8449,7 +8460,7 @@
       <c r="C34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="11" t="s">
         <v>12</v>
       </c>
@@ -8624,7 +8635,7 @@
       <c r="C35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="53"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="11" t="s">
         <v>12</v>
       </c>
@@ -8799,7 +8810,7 @@
       <c r="C36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="48" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="15" t="s">
@@ -8971,7 +8982,7 @@
       <c r="C37" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="52"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="11" t="s">
         <v>12</v>
       </c>
@@ -9141,7 +9152,7 @@
       <c r="C38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="52"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="11" t="s">
         <v>12</v>
       </c>
@@ -9311,7 +9322,7 @@
       <c r="C39" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="52"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="11" t="s">
         <v>12</v>
       </c>
@@ -9478,7 +9489,7 @@
       <c r="C40" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="52"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
@@ -9648,7 +9659,7 @@
       <c r="C41" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="52"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="11" t="s">
         <v>12</v>
       </c>
@@ -9826,7 +9837,7 @@
       <c r="C42" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="11" t="s">
         <v>12</v>
       </c>
@@ -10004,7 +10015,7 @@
       <c r="C43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="52"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="11" t="s">
         <v>12</v>
       </c>
@@ -10176,7 +10187,7 @@
       <c r="C44" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="53"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="11" t="s">
         <v>12</v>
       </c>
@@ -10348,7 +10359,7 @@
       <c r="C45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -10520,7 +10531,7 @@
       <c r="C46" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="52"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="11" t="s">
         <v>12</v>
       </c>
@@ -10690,7 +10701,7 @@
       <c r="C47" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="52"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="11" t="s">
         <v>12</v>
       </c>
@@ -10860,7 +10871,7 @@
       <c r="C48" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="52"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="11" t="s">
         <v>12</v>
       </c>
@@ -11027,7 +11038,7 @@
       <c r="C49" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="52"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="11" t="s">
         <v>12</v>
       </c>
@@ -11197,7 +11208,7 @@
       <c r="C50" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="52"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="11" t="s">
         <v>12</v>
       </c>
@@ -11378,7 +11389,7 @@
       <c r="C51" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="52"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="11" t="s">
         <v>12</v>
       </c>
@@ -11559,7 +11570,7 @@
       <c r="C52" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="52"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="11" t="s">
         <v>12</v>
       </c>
@@ -11734,7 +11745,7 @@
       <c r="C53" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="53"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="15" t="s">
         <v>12</v>
       </c>
@@ -11909,7 +11920,7 @@
       <c r="C54" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E54" s="11" t="s">
@@ -12081,7 +12092,7 @@
       <c r="C55" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="55"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="11" t="s">
         <v>12</v>
       </c>
@@ -12251,7 +12262,7 @@
       <c r="C56" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="55"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="11" t="s">
         <v>12</v>
       </c>
@@ -12421,7 +12432,7 @@
       <c r="C57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="55"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="11" t="s">
         <v>12</v>
       </c>
@@ -12591,7 +12602,7 @@
       <c r="C58" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="55"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="11" t="s">
         <v>12</v>
       </c>
@@ -12758,7 +12769,7 @@
       <c r="C59" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="55"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="11" t="s">
         <v>12</v>
       </c>
@@ -12936,7 +12947,7 @@
       <c r="C60" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="55"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="11" t="s">
         <v>12</v>
       </c>
@@ -13114,7 +13125,7 @@
       <c r="C61" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="55"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="11" t="s">
         <v>12</v>
       </c>
@@ -13286,7 +13297,7 @@
       <c r="C62" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="56"/>
+      <c r="D62" s="47"/>
       <c r="E62" s="11" t="s">
         <v>12</v>
       </c>
@@ -13458,7 +13469,7 @@
       <c r="C63" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="48" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="15" t="s">
@@ -13629,7 +13640,7 @@
       <c r="C64" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="52"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="11" t="s">
         <v>12</v>
       </c>
@@ -13798,7 +13809,7 @@
       <c r="C65" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="52"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="11" t="s">
         <v>12</v>
       </c>
@@ -13967,7 +13978,7 @@
       <c r="C66" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="52"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="11" t="s">
         <v>12</v>
       </c>
@@ -14133,7 +14144,7 @@
       <c r="C67" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="52"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="11" t="s">
         <v>12</v>
       </c>
@@ -14302,7 +14313,7 @@
       <c r="C68" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="52"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="11" t="s">
         <v>12</v>
       </c>
@@ -14480,7 +14491,7 @@
       <c r="C69" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="52"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="11" t="s">
         <v>12</v>
       </c>
@@ -14658,7 +14669,7 @@
       <c r="C70" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="52"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="11" t="s">
         <v>12</v>
       </c>
@@ -14836,7 +14847,7 @@
       <c r="C71" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="53"/>
+      <c r="D71" s="50"/>
       <c r="E71" s="11" t="s">
         <v>12</v>
       </c>
@@ -15011,7 +15022,7 @@
       <c r="C72" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="51" t="s">
         <v>63</v>
       </c>
       <c r="E72" s="15" t="s">
@@ -15183,7 +15194,7 @@
       <c r="C73" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="58"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="11" t="s">
         <v>12</v>
       </c>
@@ -15353,7 +15364,7 @@
       <c r="C74" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D74" s="58"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="11" t="s">
         <v>12</v>
       </c>
@@ -15523,7 +15534,7 @@
       <c r="C75" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="58"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="11" t="s">
         <v>12</v>
       </c>
@@ -15693,7 +15704,7 @@
       <c r="C76" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="58"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="11" t="s">
         <v>12</v>
       </c>
@@ -15863,7 +15874,7 @@
       <c r="C77" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D77" s="58"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="11" t="s">
         <v>12</v>
       </c>
@@ -16041,7 +16052,7 @@
       <c r="C78" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="58"/>
+      <c r="D78" s="52"/>
       <c r="E78" s="11" t="s">
         <v>12</v>
       </c>
@@ -16219,7 +16230,7 @@
       <c r="C79" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="58"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="11" t="s">
         <v>12</v>
       </c>
@@ -16391,7 +16402,7 @@
       <c r="C80" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="59"/>
+      <c r="D80" s="53"/>
       <c r="E80" s="11" t="s">
         <v>12</v>
       </c>
@@ -16563,7 +16574,7 @@
       <c r="C81" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="48" t="s">
         <v>64</v>
       </c>
       <c r="E81" s="15" t="s">
@@ -16734,7 +16745,7 @@
       <c r="C82" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="52"/>
+      <c r="D82" s="49"/>
       <c r="E82" s="11" t="s">
         <v>12</v>
       </c>
@@ -16903,7 +16914,7 @@
       <c r="C83" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="52"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="11" t="s">
         <v>12</v>
       </c>
@@ -17072,7 +17083,7 @@
       <c r="C84" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="52"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="11" t="s">
         <v>12</v>
       </c>
@@ -17232,7 +17243,7 @@
       <c r="C85" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="52"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="11" t="s">
         <v>12</v>
       </c>
@@ -17401,7 +17412,7 @@
       <c r="C86" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="52"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="11" t="s">
         <v>12</v>
       </c>
@@ -17579,7 +17590,7 @@
       <c r="C87" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D87" s="52"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="11" t="s">
         <v>12</v>
       </c>
@@ -17757,7 +17768,7 @@
       <c r="C88" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="52"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="11" t="s">
         <v>12</v>
       </c>
@@ -17926,7 +17937,7 @@
       <c r="C89" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="53"/>
+      <c r="D89" s="50"/>
       <c r="E89" s="11" t="s">
         <v>12</v>
       </c>
@@ -18098,7 +18109,7 @@
       <c r="C90" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="51" t="s">
+      <c r="D90" s="48" t="s">
         <v>65</v>
       </c>
       <c r="E90" s="15" t="s">
@@ -18269,7 +18280,7 @@
       <c r="C91" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="52"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="11" t="s">
         <v>12</v>
       </c>
@@ -18438,7 +18449,7 @@
       <c r="C92" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D92" s="52"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="11" t="s">
         <v>12</v>
       </c>
@@ -18607,7 +18618,7 @@
       <c r="C93" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D93" s="52"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="11" t="s">
         <v>12</v>
       </c>
@@ -18773,7 +18784,7 @@
       <c r="C94" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="52"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="11" t="s">
         <v>12</v>
       </c>
@@ -18942,7 +18953,7 @@
       <c r="C95" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D95" s="52"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="11" t="s">
         <v>12</v>
       </c>
@@ -19120,7 +19131,7 @@
       <c r="C96" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D96" s="52"/>
+      <c r="D96" s="49"/>
       <c r="E96" s="11" t="s">
         <v>12</v>
       </c>
@@ -19298,7 +19309,7 @@
       <c r="C97" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="52"/>
+      <c r="D97" s="49"/>
       <c r="E97" s="11" t="s">
         <v>12</v>
       </c>
@@ -19473,7 +19484,7 @@
       <c r="C98" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="53"/>
+      <c r="D98" s="50"/>
       <c r="E98" s="11" t="s">
         <v>12</v>
       </c>
@@ -19648,7 +19659,7 @@
       <c r="C99" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="47" t="s">
+      <c r="D99" s="57" t="s">
         <v>95</v>
       </c>
       <c r="E99" s="21" t="s">
@@ -19827,7 +19838,7 @@
       <c r="C100" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D100" s="47"/>
+      <c r="D100" s="57"/>
       <c r="E100" s="21" t="s">
         <v>12</v>
       </c>
@@ -19904,7 +19915,7 @@
       <c r="C101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D101" s="47"/>
+      <c r="D101" s="57"/>
       <c r="E101" s="21" t="s">
         <v>12</v>
       </c>
@@ -19981,7 +19992,7 @@
       <c r="C102" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="47"/>
+      <c r="D102" s="57"/>
       <c r="E102" s="21" t="s">
         <v>12</v>
       </c>
@@ -20058,7 +20069,7 @@
       <c r="C103" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D103" s="47"/>
+      <c r="D103" s="57"/>
       <c r="E103" s="21" t="s">
         <v>12</v>
       </c>
@@ -20135,7 +20146,7 @@
       <c r="C104" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D104" s="47"/>
+      <c r="D104" s="57"/>
       <c r="E104" s="21" t="s">
         <v>12</v>
       </c>
@@ -20212,7 +20223,7 @@
       <c r="C105" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D105" s="47"/>
+      <c r="D105" s="57"/>
       <c r="E105" s="21" t="s">
         <v>12</v>
       </c>
@@ -20289,7 +20300,7 @@
       <c r="C106" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D106" s="47"/>
+      <c r="D106" s="57"/>
       <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
@@ -20328,7 +20339,7 @@
       <c r="C107" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="47"/>
+      <c r="D107" s="57"/>
       <c r="E107" s="21" t="s">
         <v>12</v>
       </c>
@@ -20367,7 +20378,7 @@
       <c r="C108" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D108" s="47" t="s">
+      <c r="D108" s="57" t="s">
         <v>96</v>
       </c>
       <c r="E108" s="21" t="s">
@@ -20408,7 +20419,7 @@
       <c r="C109" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D109" s="47"/>
+      <c r="D109" s="57"/>
       <c r="E109" s="21" t="s">
         <v>12</v>
       </c>
@@ -20447,7 +20458,7 @@
       <c r="C110" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D110" s="47"/>
+      <c r="D110" s="57"/>
       <c r="E110" s="21" t="s">
         <v>12</v>
       </c>
@@ -20486,7 +20497,7 @@
       <c r="C111" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D111" s="47"/>
+      <c r="D111" s="57"/>
       <c r="E111" s="21" t="s">
         <v>12</v>
       </c>
@@ -20525,7 +20536,7 @@
       <c r="C112" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D112" s="47"/>
+      <c r="D112" s="57"/>
       <c r="E112" s="21" t="s">
         <v>12</v>
       </c>
@@ -20564,7 +20575,7 @@
       <c r="C113" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D113" s="47"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="21" t="s">
         <v>12</v>
       </c>
@@ -20603,7 +20614,7 @@
       <c r="C114" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D114" s="47"/>
+      <c r="D114" s="57"/>
       <c r="E114" s="21" t="s">
         <v>12</v>
       </c>
@@ -20642,7 +20653,7 @@
       <c r="C115" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D115" s="47"/>
+      <c r="D115" s="57"/>
       <c r="E115" s="21" t="s">
         <v>12</v>
       </c>
@@ -20681,7 +20692,7 @@
       <c r="C116" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D116" s="47"/>
+      <c r="D116" s="57"/>
       <c r="E116" s="21" t="s">
         <v>12</v>
       </c>
@@ -20720,7 +20731,7 @@
       <c r="C117" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D117" s="46" t="s">
+      <c r="D117" s="58" t="s">
         <v>98</v>
       </c>
       <c r="E117" s="21" t="s">
@@ -20761,7 +20772,7 @@
       <c r="C118" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="46"/>
+      <c r="D118" s="58"/>
       <c r="E118" s="21" t="s">
         <v>12</v>
       </c>
@@ -20800,7 +20811,7 @@
       <c r="C119" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D119" s="46"/>
+      <c r="D119" s="58"/>
       <c r="E119" s="21" t="s">
         <v>12</v>
       </c>
@@ -20839,7 +20850,7 @@
       <c r="C120" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D120" s="46"/>
+      <c r="D120" s="58"/>
       <c r="E120" s="21" t="s">
         <v>12</v>
       </c>
@@ -20878,7 +20889,7 @@
       <c r="C121" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D121" s="46"/>
+      <c r="D121" s="58"/>
       <c r="E121" s="21" t="s">
         <v>12</v>
       </c>
@@ -20917,7 +20928,7 @@
       <c r="C122" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D122" s="46"/>
+      <c r="D122" s="58"/>
       <c r="E122" s="21" t="s">
         <v>12</v>
       </c>
@@ -20956,7 +20967,7 @@
       <c r="C123" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D123" s="46"/>
+      <c r="D123" s="58"/>
       <c r="E123" s="21" t="s">
         <v>12</v>
       </c>
@@ -20995,7 +21006,7 @@
       <c r="C124" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="46"/>
+      <c r="D124" s="58"/>
       <c r="E124" s="21" t="s">
         <v>12</v>
       </c>
@@ -21034,7 +21045,7 @@
       <c r="C125" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D125" s="46"/>
+      <c r="D125" s="58"/>
       <c r="E125" s="21" t="s">
         <v>12</v>
       </c>
@@ -21073,7 +21084,7 @@
       <c r="C126" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D126" s="46" t="s">
+      <c r="D126" s="58" t="s">
         <v>99</v>
       </c>
       <c r="E126" s="21" t="s">
@@ -21114,7 +21125,7 @@
       <c r="C127" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D127" s="46"/>
+      <c r="D127" s="58"/>
       <c r="E127" s="21" t="s">
         <v>12</v>
       </c>
@@ -21153,7 +21164,7 @@
       <c r="C128" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="46"/>
+      <c r="D128" s="58"/>
       <c r="E128" s="21" t="s">
         <v>12</v>
       </c>
@@ -21192,7 +21203,7 @@
       <c r="C129" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D129" s="46"/>
+      <c r="D129" s="58"/>
       <c r="E129" s="21" t="s">
         <v>12</v>
       </c>
@@ -21231,7 +21242,7 @@
       <c r="C130" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D130" s="46"/>
+      <c r="D130" s="58"/>
       <c r="E130" s="21" t="s">
         <v>12</v>
       </c>
@@ -21270,7 +21281,7 @@
       <c r="C131" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D131" s="46"/>
+      <c r="D131" s="58"/>
       <c r="E131" s="21" t="s">
         <v>12</v>
       </c>
@@ -21309,7 +21320,7 @@
       <c r="C132" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D132" s="46"/>
+      <c r="D132" s="58"/>
       <c r="E132" s="21" t="s">
         <v>12</v>
       </c>
@@ -21348,7 +21359,7 @@
       <c r="C133" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D133" s="46"/>
+      <c r="D133" s="58"/>
       <c r="E133" s="21" t="s">
         <v>12</v>
       </c>
@@ -21387,7 +21398,7 @@
       <c r="C134" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D134" s="46"/>
+      <c r="D134" s="58"/>
       <c r="E134" s="21" t="s">
         <v>12</v>
       </c>
@@ -21426,7 +21437,7 @@
       <c r="C135" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D135" s="46" t="s">
+      <c r="D135" s="58" t="s">
         <v>100</v>
       </c>
       <c r="E135" s="21" t="s">
@@ -21467,7 +21478,7 @@
       <c r="C136" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D136" s="46"/>
+      <c r="D136" s="58"/>
       <c r="E136" s="21" t="s">
         <v>12</v>
       </c>
@@ -21506,7 +21517,7 @@
       <c r="C137" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D137" s="46"/>
+      <c r="D137" s="58"/>
       <c r="E137" s="21" t="s">
         <v>12</v>
       </c>
@@ -21545,7 +21556,7 @@
       <c r="C138" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D138" s="46"/>
+      <c r="D138" s="58"/>
       <c r="E138" s="21" t="s">
         <v>12</v>
       </c>
@@ -21584,7 +21595,7 @@
       <c r="C139" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D139" s="46"/>
+      <c r="D139" s="58"/>
       <c r="E139" s="21" t="s">
         <v>12</v>
       </c>
@@ -21623,7 +21634,7 @@
       <c r="C140" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D140" s="46"/>
+      <c r="D140" s="58"/>
       <c r="E140" s="21" t="s">
         <v>12</v>
       </c>
@@ -21662,7 +21673,7 @@
       <c r="C141" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D141" s="46"/>
+      <c r="D141" s="58"/>
       <c r="E141" s="21" t="s">
         <v>12</v>
       </c>
@@ -21701,7 +21712,7 @@
       <c r="C142" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D142" s="46"/>
+      <c r="D142" s="58"/>
       <c r="E142" s="21" t="s">
         <v>12</v>
       </c>
@@ -21740,7 +21751,7 @@
       <c r="C143" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D143" s="46"/>
+      <c r="D143" s="58"/>
       <c r="E143" s="21" t="s">
         <v>12</v>
       </c>
@@ -21779,7 +21790,7 @@
       <c r="C144" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D144" s="46" t="s">
+      <c r="D144" s="58" t="s">
         <v>103</v>
       </c>
       <c r="E144" s="21" t="s">
@@ -21820,7 +21831,7 @@
       <c r="C145" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D145" s="46"/>
+      <c r="D145" s="58"/>
       <c r="E145" s="21" t="s">
         <v>12</v>
       </c>
@@ -21859,7 +21870,7 @@
       <c r="C146" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D146" s="46"/>
+      <c r="D146" s="58"/>
       <c r="E146" s="21" t="s">
         <v>12</v>
       </c>
@@ -21898,7 +21909,7 @@
       <c r="C147" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D147" s="46"/>
+      <c r="D147" s="58"/>
       <c r="E147" s="21" t="s">
         <v>12</v>
       </c>
@@ -21937,7 +21948,7 @@
       <c r="C148" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D148" s="46"/>
+      <c r="D148" s="58"/>
       <c r="E148" s="21" t="s">
         <v>12</v>
       </c>
@@ -21976,7 +21987,7 @@
       <c r="C149" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D149" s="46"/>
+      <c r="D149" s="58"/>
       <c r="E149" s="21" t="s">
         <v>12</v>
       </c>
@@ -22015,7 +22026,7 @@
       <c r="C150" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D150" s="46"/>
+      <c r="D150" s="58"/>
       <c r="E150" s="21" t="s">
         <v>12</v>
       </c>
@@ -22054,7 +22065,7 @@
       <c r="C151" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D151" s="46"/>
+      <c r="D151" s="58"/>
       <c r="E151" s="21" t="s">
         <v>12</v>
       </c>
@@ -22093,7 +22104,7 @@
       <c r="C152" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D152" s="46"/>
+      <c r="D152" s="58"/>
       <c r="E152" s="21" t="s">
         <v>12</v>
       </c>
@@ -22132,7 +22143,7 @@
       <c r="C153" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D153" s="46" t="s">
+      <c r="D153" s="58" t="s">
         <v>104</v>
       </c>
       <c r="E153" s="21" t="s">
@@ -22173,7 +22184,7 @@
       <c r="C154" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D154" s="46"/>
+      <c r="D154" s="58"/>
       <c r="E154" s="21" t="s">
         <v>12</v>
       </c>
@@ -22212,7 +22223,7 @@
       <c r="C155" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D155" s="46"/>
+      <c r="D155" s="58"/>
       <c r="E155" s="21" t="s">
         <v>12</v>
       </c>
@@ -22251,7 +22262,7 @@
       <c r="C156" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D156" s="46"/>
+      <c r="D156" s="58"/>
       <c r="E156" s="21" t="s">
         <v>12</v>
       </c>
@@ -22290,7 +22301,7 @@
       <c r="C157" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D157" s="46"/>
+      <c r="D157" s="58"/>
       <c r="E157" s="21" t="s">
         <v>12</v>
       </c>
@@ -22329,7 +22340,7 @@
       <c r="C158" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D158" s="46"/>
+      <c r="D158" s="58"/>
       <c r="E158" s="21" t="s">
         <v>12</v>
       </c>
@@ -22368,7 +22379,7 @@
       <c r="C159" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D159" s="46"/>
+      <c r="D159" s="58"/>
       <c r="E159" s="21" t="s">
         <v>12</v>
       </c>
@@ -22407,7 +22418,7 @@
       <c r="C160" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D160" s="46"/>
+      <c r="D160" s="58"/>
       <c r="E160" s="21" t="s">
         <v>12</v>
       </c>
@@ -22446,7 +22457,7 @@
       <c r="C161" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D161" s="46"/>
+      <c r="D161" s="58"/>
       <c r="E161" s="21" t="s">
         <v>12</v>
       </c>
@@ -22485,7 +22496,7 @@
       <c r="C162" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D162" s="46" t="s">
+      <c r="D162" s="58" t="s">
         <v>105</v>
       </c>
       <c r="E162" s="21" t="s">
@@ -22526,7 +22537,7 @@
       <c r="C163" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D163" s="46"/>
+      <c r="D163" s="58"/>
       <c r="E163" s="21" t="s">
         <v>12</v>
       </c>
@@ -22565,7 +22576,7 @@
       <c r="C164" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D164" s="46"/>
+      <c r="D164" s="58"/>
       <c r="E164" s="21" t="s">
         <v>12</v>
       </c>
@@ -22604,7 +22615,7 @@
       <c r="C165" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D165" s="46"/>
+      <c r="D165" s="58"/>
       <c r="E165" s="21" t="s">
         <v>12</v>
       </c>
@@ -22643,7 +22654,7 @@
       <c r="C166" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D166" s="46"/>
+      <c r="D166" s="58"/>
       <c r="E166" s="21" t="s">
         <v>12</v>
       </c>
@@ -22682,7 +22693,7 @@
       <c r="C167" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D167" s="46"/>
+      <c r="D167" s="58"/>
       <c r="E167" s="21" t="s">
         <v>12</v>
       </c>
@@ -22721,7 +22732,7 @@
       <c r="C168" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D168" s="46"/>
+      <c r="D168" s="58"/>
       <c r="E168" s="21" t="s">
         <v>12</v>
       </c>
@@ -22760,7 +22771,7 @@
       <c r="C169" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D169" s="46"/>
+      <c r="D169" s="58"/>
       <c r="E169" s="21" t="s">
         <v>12</v>
       </c>
@@ -22799,7 +22810,7 @@
       <c r="C170" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D170" s="46"/>
+      <c r="D170" s="58"/>
       <c r="E170" s="21" t="s">
         <v>12</v>
       </c>
@@ -22838,7 +22849,7 @@
       <c r="C171" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D171" s="46" t="s">
+      <c r="D171" s="58" t="s">
         <v>106</v>
       </c>
       <c r="E171" s="21" t="s">
@@ -22879,7 +22890,7 @@
       <c r="C172" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D172" s="46"/>
+      <c r="D172" s="58"/>
       <c r="E172" s="21" t="s">
         <v>12</v>
       </c>
@@ -22918,7 +22929,7 @@
       <c r="C173" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D173" s="46"/>
+      <c r="D173" s="58"/>
       <c r="E173" s="21" t="s">
         <v>12</v>
       </c>
@@ -22957,7 +22968,7 @@
       <c r="C174" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D174" s="46"/>
+      <c r="D174" s="58"/>
       <c r="E174" s="21" t="s">
         <v>12</v>
       </c>
@@ -22996,7 +23007,7 @@
       <c r="C175" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D175" s="46"/>
+      <c r="D175" s="58"/>
       <c r="E175" s="21" t="s">
         <v>12</v>
       </c>
@@ -23035,7 +23046,7 @@
       <c r="C176" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D176" s="46"/>
+      <c r="D176" s="58"/>
       <c r="E176" s="21" t="s">
         <v>12</v>
       </c>
@@ -23074,7 +23085,7 @@
       <c r="C177" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D177" s="46"/>
+      <c r="D177" s="58"/>
       <c r="E177" s="21" t="s">
         <v>12</v>
       </c>
@@ -23113,7 +23124,7 @@
       <c r="C178" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D178" s="46"/>
+      <c r="D178" s="58"/>
       <c r="E178" s="21" t="s">
         <v>12</v>
       </c>
@@ -23152,7 +23163,7 @@
       <c r="C179" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D179" s="46"/>
+      <c r="D179" s="58"/>
       <c r="E179" s="21" t="s">
         <v>12</v>
       </c>
@@ -23191,7 +23202,7 @@
       <c r="C180" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D180" s="46" t="s">
+      <c r="D180" s="58" t="s">
         <v>107</v>
       </c>
       <c r="E180" s="21" t="s">
@@ -23232,7 +23243,7 @@
       <c r="C181" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D181" s="46"/>
+      <c r="D181" s="58"/>
       <c r="E181" s="21" t="s">
         <v>12</v>
       </c>
@@ -23271,7 +23282,7 @@
       <c r="C182" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D182" s="46"/>
+      <c r="D182" s="58"/>
       <c r="E182" s="21" t="s">
         <v>12</v>
       </c>
@@ -23310,7 +23321,7 @@
       <c r="C183" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D183" s="46"/>
+      <c r="D183" s="58"/>
       <c r="E183" s="21" t="s">
         <v>12</v>
       </c>
@@ -23349,7 +23360,7 @@
       <c r="C184" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D184" s="46"/>
+      <c r="D184" s="58"/>
       <c r="E184" s="21" t="s">
         <v>12</v>
       </c>
@@ -23388,7 +23399,7 @@
       <c r="C185" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D185" s="46"/>
+      <c r="D185" s="58"/>
       <c r="E185" s="21" t="s">
         <v>12</v>
       </c>
@@ -23427,7 +23438,7 @@
       <c r="C186" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D186" s="46"/>
+      <c r="D186" s="58"/>
       <c r="E186" s="21" t="s">
         <v>12</v>
       </c>
@@ -23466,7 +23477,7 @@
       <c r="C187" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D187" s="46"/>
+      <c r="D187" s="58"/>
       <c r="E187" s="21" t="s">
         <v>12</v>
       </c>
@@ -23505,7 +23516,7 @@
       <c r="C188" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D188" s="46"/>
+      <c r="D188" s="58"/>
       <c r="E188" s="21" t="s">
         <v>12</v>
       </c>
@@ -23544,7 +23555,7 @@
       <c r="C189" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D189" s="46" t="s">
+      <c r="D189" s="58" t="s">
         <v>108</v>
       </c>
       <c r="E189" s="21" t="s">
@@ -23585,7 +23596,7 @@
       <c r="C190" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D190" s="46"/>
+      <c r="D190" s="58"/>
       <c r="E190" s="21" t="s">
         <v>12</v>
       </c>
@@ -23624,7 +23635,7 @@
       <c r="C191" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D191" s="46"/>
+      <c r="D191" s="58"/>
       <c r="E191" s="21" t="s">
         <v>12</v>
       </c>
@@ -23663,7 +23674,7 @@
       <c r="C192" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D192" s="46"/>
+      <c r="D192" s="58"/>
       <c r="E192" s="21" t="s">
         <v>12</v>
       </c>
@@ -23702,7 +23713,7 @@
       <c r="C193" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D193" s="46"/>
+      <c r="D193" s="58"/>
       <c r="E193" s="21" t="s">
         <v>12</v>
       </c>
@@ -23741,7 +23752,7 @@
       <c r="C194" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D194" s="46"/>
+      <c r="D194" s="58"/>
       <c r="E194" s="21" t="s">
         <v>12</v>
       </c>
@@ -23780,7 +23791,7 @@
       <c r="C195" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D195" s="46"/>
+      <c r="D195" s="58"/>
       <c r="E195" s="21" t="s">
         <v>12</v>
       </c>
@@ -23819,7 +23830,7 @@
       <c r="C196" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D196" s="46"/>
+      <c r="D196" s="58"/>
       <c r="E196" s="21" t="s">
         <v>12</v>
       </c>
@@ -23858,7 +23869,7 @@
       <c r="C197" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D197" s="46"/>
+      <c r="D197" s="58"/>
       <c r="E197" s="21" t="s">
         <v>12</v>
       </c>
@@ -23897,7 +23908,7 @@
       <c r="C198" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D198" s="46" t="s">
+      <c r="D198" s="58" t="s">
         <v>110</v>
       </c>
       <c r="E198" s="21" t="s">
@@ -23938,7 +23949,7 @@
       <c r="C199" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D199" s="46"/>
+      <c r="D199" s="58"/>
       <c r="E199" s="21" t="s">
         <v>12</v>
       </c>
@@ -23977,7 +23988,7 @@
       <c r="C200" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D200" s="46"/>
+      <c r="D200" s="58"/>
       <c r="E200" s="21" t="s">
         <v>12</v>
       </c>
@@ -24016,7 +24027,7 @@
       <c r="C201" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D201" s="46"/>
+      <c r="D201" s="58"/>
       <c r="E201" s="21" t="s">
         <v>12</v>
       </c>
@@ -24055,7 +24066,7 @@
       <c r="C202" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D202" s="46"/>
+      <c r="D202" s="58"/>
       <c r="E202" s="21" t="s">
         <v>12</v>
       </c>
@@ -24094,7 +24105,7 @@
       <c r="C203" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D203" s="46"/>
+      <c r="D203" s="58"/>
       <c r="E203" s="21" t="s">
         <v>12</v>
       </c>
@@ -24133,7 +24144,7 @@
       <c r="C204" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D204" s="46"/>
+      <c r="D204" s="58"/>
       <c r="E204" s="21" t="s">
         <v>12</v>
       </c>
@@ -24172,7 +24183,7 @@
       <c r="C205" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D205" s="46"/>
+      <c r="D205" s="58"/>
       <c r="E205" s="21" t="s">
         <v>12</v>
       </c>
@@ -24211,7 +24222,7 @@
       <c r="C206" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D206" s="46"/>
+      <c r="D206" s="58"/>
       <c r="E206" s="21" t="s">
         <v>12</v>
       </c>
@@ -24241,80 +24252,80 @@
       <c r="O206" s="11"/>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A208" s="40" t="s">
+      <c r="A208" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B208" s="40"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
-      <c r="E208" s="40"/>
-      <c r="F208" s="40"/>
-      <c r="G208" s="40"/>
-      <c r="H208" s="40"/>
-      <c r="I208" s="40"/>
-      <c r="J208" s="40"/>
-      <c r="K208" s="40"/>
-      <c r="L208" s="40"/>
-      <c r="M208" s="40"/>
-      <c r="N208" s="40"/>
-      <c r="O208" s="41"/>
+      <c r="B208" s="39"/>
+      <c r="C208" s="39"/>
+      <c r="D208" s="39"/>
+      <c r="E208" s="39"/>
+      <c r="F208" s="39"/>
+      <c r="G208" s="39"/>
+      <c r="H208" s="39"/>
+      <c r="I208" s="39"/>
+      <c r="J208" s="39"/>
+      <c r="K208" s="39"/>
+      <c r="L208" s="39"/>
+      <c r="M208" s="39"/>
+      <c r="N208" s="39"/>
+      <c r="O208" s="40"/>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A209" s="40"/>
-      <c r="B209" s="40"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="40"/>
-      <c r="E209" s="40"/>
-      <c r="F209" s="40"/>
-      <c r="G209" s="40"/>
-      <c r="H209" s="40"/>
-      <c r="I209" s="40"/>
-      <c r="J209" s="40"/>
-      <c r="K209" s="40"/>
-      <c r="L209" s="40"/>
-      <c r="M209" s="40"/>
-      <c r="N209" s="40"/>
-      <c r="O209" s="41"/>
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="39"/>
+      <c r="D209" s="39"/>
+      <c r="E209" s="39"/>
+      <c r="F209" s="39"/>
+      <c r="G209" s="39"/>
+      <c r="H209" s="39"/>
+      <c r="I209" s="39"/>
+      <c r="J209" s="39"/>
+      <c r="K209" s="39"/>
+      <c r="L209" s="39"/>
+      <c r="M209" s="39"/>
+      <c r="N209" s="39"/>
+      <c r="O209" s="40"/>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A210" s="42" t="s">
+      <c r="A210" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="42"/>
-      <c r="C210" s="42"/>
-      <c r="D210" s="43" t="s">
+      <c r="B210" s="44"/>
+      <c r="C210" s="44"/>
+      <c r="D210" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E210" s="44" t="s">
+      <c r="E210" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F210" s="44"/>
-      <c r="G210" s="44"/>
-      <c r="H210" s="44"/>
-      <c r="I210" s="44"/>
-      <c r="J210" s="44"/>
-      <c r="K210" s="44"/>
-      <c r="L210" s="44"/>
-      <c r="M210" s="44"/>
-      <c r="N210" s="44"/>
-      <c r="O210" s="45"/>
+      <c r="F210" s="42"/>
+      <c r="G210" s="42"/>
+      <c r="H210" s="42"/>
+      <c r="I210" s="42"/>
+      <c r="J210" s="42"/>
+      <c r="K210" s="42"/>
+      <c r="L210" s="42"/>
+      <c r="M210" s="42"/>
+      <c r="N210" s="42"/>
+      <c r="O210" s="43"/>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A211" s="42"/>
-      <c r="B211" s="42"/>
-      <c r="C211" s="42"/>
-      <c r="D211" s="43"/>
-      <c r="E211" s="44"/>
-      <c r="F211" s="44"/>
-      <c r="G211" s="44"/>
-      <c r="H211" s="44"/>
-      <c r="I211" s="44"/>
-      <c r="J211" s="44"/>
-      <c r="K211" s="44"/>
-      <c r="L211" s="44"/>
-      <c r="M211" s="44"/>
-      <c r="N211" s="44"/>
-      <c r="O211" s="45"/>
+      <c r="A211" s="44"/>
+      <c r="B211" s="44"/>
+      <c r="C211" s="44"/>
+      <c r="D211" s="41"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="42"/>
+      <c r="G211" s="42"/>
+      <c r="H211" s="42"/>
+      <c r="I211" s="42"/>
+      <c r="J211" s="42"/>
+      <c r="K211" s="42"/>
+      <c r="L211" s="42"/>
+      <c r="M211" s="42"/>
+      <c r="N211" s="42"/>
+      <c r="O211" s="43"/>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="36" t="s">
@@ -24390,7 +24401,7 @@
       <c r="C214" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D214" s="39" t="s">
+      <c r="D214" s="59" t="s">
         <v>111</v>
       </c>
       <c r="E214" s="21" t="s">
@@ -24416,7 +24427,7 @@
       <c r="C215" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D215" s="39"/>
+      <c r="D215" s="59"/>
       <c r="E215" s="21" t="s">
         <v>12</v>
       </c>
@@ -24440,7 +24451,7 @@
       <c r="C216" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D216" s="39"/>
+      <c r="D216" s="59"/>
       <c r="E216" s="21" t="s">
         <v>12</v>
       </c>
@@ -24464,7 +24475,7 @@
       <c r="C217" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D217" s="39"/>
+      <c r="D217" s="59"/>
       <c r="E217" s="21" t="s">
         <v>12</v>
       </c>
@@ -24488,7 +24499,7 @@
       <c r="C218" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D218" s="39" t="s">
+      <c r="D218" s="59" t="s">
         <v>114</v>
       </c>
       <c r="E218" s="21" t="s">
@@ -24511,7 +24522,7 @@
       <c r="C219" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D219" s="39"/>
+      <c r="D219" s="59"/>
       <c r="E219" s="21" t="s">
         <v>12</v>
       </c>
@@ -24532,7 +24543,7 @@
       <c r="C220" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D220" s="39"/>
+      <c r="D220" s="59"/>
       <c r="E220" s="21" t="s">
         <v>12</v>
       </c>
@@ -24553,7 +24564,7 @@
       <c r="C221" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D221" s="39"/>
+      <c r="D221" s="59"/>
       <c r="E221" s="21" t="s">
         <v>12</v>
       </c>
@@ -24574,7 +24585,7 @@
       <c r="C222" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D222" s="39" t="s">
+      <c r="D222" s="59" t="s">
         <v>115</v>
       </c>
       <c r="E222" s="21" t="s">
@@ -24597,7 +24608,7 @@
       <c r="C223" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D223" s="39"/>
+      <c r="D223" s="59"/>
       <c r="E223" s="21" t="s">
         <v>12</v>
       </c>
@@ -24618,7 +24629,7 @@
       <c r="C224" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D224" s="39"/>
+      <c r="D224" s="59"/>
       <c r="E224" s="21" t="s">
         <v>12</v>
       </c>
@@ -24639,7 +24650,7 @@
       <c r="C225" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D225" s="39"/>
+      <c r="D225" s="59"/>
       <c r="E225" s="21" t="s">
         <v>12</v>
       </c>
@@ -24652,34 +24663,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:O4"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D54:D62"/>
-    <mergeCell ref="D63:D71"/>
-    <mergeCell ref="D72:D80"/>
-    <mergeCell ref="D81:D89"/>
-    <mergeCell ref="D90:D98"/>
-    <mergeCell ref="D9:D17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="D27:D35"/>
-    <mergeCell ref="D36:D44"/>
-    <mergeCell ref="D45:D53"/>
-    <mergeCell ref="D99:D107"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="D126:D134"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="D180:D188"/>
-    <mergeCell ref="D189:D197"/>
-    <mergeCell ref="D198:D206"/>
-    <mergeCell ref="D144:D152"/>
-    <mergeCell ref="D153:D161"/>
-    <mergeCell ref="D162:D170"/>
-    <mergeCell ref="D171:D179"/>
     <mergeCell ref="A212:C212"/>
     <mergeCell ref="D214:D217"/>
     <mergeCell ref="D218:D221"/>
@@ -24689,6 +24672,34 @@
     <mergeCell ref="D210:D211"/>
     <mergeCell ref="E210:F211"/>
     <mergeCell ref="G210:O211"/>
+    <mergeCell ref="D180:D188"/>
+    <mergeCell ref="D189:D197"/>
+    <mergeCell ref="D198:D206"/>
+    <mergeCell ref="D144:D152"/>
+    <mergeCell ref="D153:D161"/>
+    <mergeCell ref="D162:D170"/>
+    <mergeCell ref="D171:D179"/>
+    <mergeCell ref="D99:D107"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="D126:D134"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="D9:D17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="D36:D44"/>
+    <mergeCell ref="D45:D53"/>
+    <mergeCell ref="D54:D62"/>
+    <mergeCell ref="D63:D71"/>
+    <mergeCell ref="D72:D80"/>
+    <mergeCell ref="D81:D89"/>
+    <mergeCell ref="D90:D98"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:O4"/>
+    <mergeCell ref="A3:C4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K17" r:id="rId1" tooltip="[asignada] Error Enviar confirmación del cálculo CPH a Damop" display="http://10.200.4.202/view.php?id=59"/>
